--- a/stop.xlsx
+++ b/stop.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hoa\Documents\diplomka\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30A2F932-4392-4246-AA68-E7FFB6CBA7F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2F57386-D97D-4F1B-B778-5D90A1799B22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4B1D134D-04E9-4A97-AB53-957171F4166B}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="List1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">List1!$A$2:$A$84</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">List1!$A$2:$A$83</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
   <si>
     <t>a</t>
   </si>
@@ -285,6 +285,36 @@
   </si>
   <si>
     <t>stop_words</t>
+  </si>
+  <si>
+    <t>zejména</t>
+  </si>
+  <si>
+    <t>takto</t>
+  </si>
+  <si>
+    <t>kterákoliv</t>
+  </si>
+  <si>
+    <t>kterékoliv</t>
+  </si>
+  <si>
+    <t>kterýkoliv</t>
+  </si>
+  <si>
+    <t>kt</t>
+  </si>
+  <si>
+    <t>jejích</t>
+  </si>
+  <si>
+    <t>kromě</t>
+  </si>
+  <si>
+    <t>opět</t>
+  </si>
+  <si>
+    <t>zcela</t>
   </si>
 </sst>
 </file>
@@ -636,10 +666,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69C809F4-797F-45A8-A82D-5225BD37BEAC}">
-  <dimension ref="A1:A84"/>
+  <dimension ref="A1:A93"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D92" sqref="D92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -731,92 +761,92 @@
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>49</v>
+        <v>89</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
@@ -851,223 +881,268 @@
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>50</v>
+        <v>88</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>2</v>
+        <v>35</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>51</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>9</v>
+        <v>84</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>23</v>
+        <v>79</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>80</v>
+        <v>24</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>81</v>
+        <v>25</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
         <v>32</v>
       </c>
     </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>92</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:A84" xr:uid="{13C3EB24-C140-493B-8A10-6686C3D78B99}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:A84">
-      <sortCondition ref="A2:A84"/>
+  <autoFilter ref="A2:A83" xr:uid="{13C3EB24-C140-493B-8A10-6686C3D78B99}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:A90">
+      <sortCondition ref="A2:A83"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/stop.xlsx
+++ b/stop.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hoa\Documents\diplomka\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2F57386-D97D-4F1B-B778-5D90A1799B22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{372309BE-6A3F-4E27-AD7D-E48327485B62}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4B1D134D-04E9-4A97-AB53-957171F4166B}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="List1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">List1!$A$2:$A$83</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">List1!$A$2:$A$81</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
   <si>
     <t>a</t>
   </si>
@@ -95,36 +95,6 @@
     <t>ať</t>
   </si>
   <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>II</t>
-  </si>
-  <si>
-    <t>III</t>
-  </si>
-  <si>
-    <t>IV</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>VI</t>
-  </si>
-  <si>
-    <t>VII</t>
-  </si>
-  <si>
-    <t>VIII</t>
-  </si>
-  <si>
-    <t>IX</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
     <t>alespoň</t>
   </si>
   <si>
@@ -134,9 +104,6 @@
     <t>pod</t>
   </si>
   <si>
-    <t>ZZ</t>
-  </si>
-  <si>
     <t>CC</t>
   </si>
   <si>
@@ -278,12 +245,6 @@
     <t>též</t>
   </si>
   <si>
-    <t>XI</t>
-  </si>
-  <si>
-    <t>XII</t>
-  </si>
-  <si>
     <t>stop_words</t>
   </si>
   <si>
@@ -315,6 +276,39 @@
   </si>
   <si>
     <t>zcela</t>
+  </si>
+  <si>
+    <t>iii</t>
+  </si>
+  <si>
+    <t>ii</t>
+  </si>
+  <si>
+    <t>iv</t>
+  </si>
+  <si>
+    <t>ix</t>
+  </si>
+  <si>
+    <t>vi</t>
+  </si>
+  <si>
+    <t>vii</t>
+  </si>
+  <si>
+    <t>viii</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>xi</t>
+  </si>
+  <si>
+    <t>xii</t>
+  </si>
+  <si>
+    <t>zz</t>
   </si>
 </sst>
 </file>
@@ -668,15 +662,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69C809F4-797F-45A8-A82D-5225BD37BEAC}">
   <dimension ref="A1:A93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D92" sqref="D92"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A89" sqref="A89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
@@ -696,17 +690,17 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
@@ -721,32 +715,32 @@
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
@@ -756,22 +750,22 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
@@ -781,12 +775,12 @@
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
@@ -796,37 +790,37 @@
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>19</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>20</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>21</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>22</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
@@ -836,313 +830,304 @@
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>65</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>86</v>
+        <v>39</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>87</v>
+        <v>50</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>78</v>
+        <v>23</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>35</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>62</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>84</v>
+        <v>40</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>71</v>
+        <v>5</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>42</v>
+        <v>84</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>24</v>
+        <v>86</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>26</v>
+        <v>87</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>28</v>
+        <v>89</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>80</v>
+        <v>7</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>7</v>
+        <v>70</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>11</v>
+        <v>90</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>32</v>
+        <v>78</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
-        <v>92</v>
-      </c>
-    </row>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <autoFilter ref="A2:A83" xr:uid="{13C3EB24-C140-493B-8A10-6686C3D78B99}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:A90">
-      <sortCondition ref="A2:A83"/>
+  <autoFilter ref="A2:A81" xr:uid="{13C3EB24-C140-493B-8A10-6686C3D78B99}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:A88">
+      <sortCondition ref="A2:A81"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
